--- a/biology/Médecine/Déglutition/Déglutition.xlsx
+++ b/biology/Médecine/Déglutition/Déglutition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9glutition</t>
+          <t>Déglutition</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La déglutition est l'action d'avaler. Le terme concerne aussi bien l'action d'avaler sa salive après la mise en occlusion des arcades dentaires (déglutition physiologique) que le déplacement de la nourriture mâchée ou bol alimentaire jusqu'à l'estomac. Elle fait partie de la manducation, c'est-à-dire de l'ensemble des opérations syllabiques et techniques (préhension, mastication, insalivation, déglutition) antérieures à la digestion dans le tube digestif. Elle se produit en moyenne 3 000 fois/jour chez les êtres humains[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La déglutition est l'action d'avaler. Le terme concerne aussi bien l'action d'avaler sa salive après la mise en occlusion des arcades dentaires (déglutition physiologique) que le déplacement de la nourriture mâchée ou bol alimentaire jusqu'à l'estomac. Elle fait partie de la manducation, c'est-à-dire de l'ensemble des opérations syllabiques et techniques (préhension, mastication, insalivation, déglutition) antérieures à la digestion dans le tube digestif. Elle se produit en moyenne 3 000 fois/jour chez les êtres humains.
 La déglutition procède en quatre temps :
 le temps buccal (déglutition volontaire) ;
 le temps pharyngien (déglutition réflexe) ;
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9glutition</t>
+          <t>Déglutition</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,8 +530,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>La déglutition salivaire ou « à vide »
-déglutition de type salivaire, et non alimentaire, car elle ne fait pas suite à la mastication :
+          <t>La déglutition salivaire ou « à vide »</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>déglutition de type salivaire, et non alimentaire, car elle ne fait pas suite à la mastication :
 on déglutit automatiquement (réflexe) environ deux fois par minute, soit une moyenne de 3 000 bols salivaires par vingt-quatre heures ;
 une fréquence de déglutition à vide légèrement plus élevée a été observée chez les sujets de sexe masculin ;
 chez l'adulte, un peu moins d'une demi tonne de salive est déglutie par an, soit 1,5 litre de salive par jour ;
@@ -528,28 +545,173 @@
 elle permet le drainage des sécrétions des fosses nasales et du rhinopharynx ;
 elle permet la ventilation de l'oreille moyenne par ouverture de la trompe d'Eustache ;
 par cette ouverture de la trompe d'Eustache, la déglutition salivaire permet l'équilibration des pressions de chaque côté de la membrane du tympan ;
-contrairement à la croyance populaire, un état anxieux n'engendre pas une augmentation de la fréquence de déglutition.
-Déglutition physiologique
-La déglutition physiologique concerne plus de 75 % de la population adulte :
+contrairement à la croyance populaire, un état anxieux n'engendre pas une augmentation de la fréquence de déglutition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Déglutition</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Le temps buccal</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La déglutition salivaire ou « à vide »</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Déglutition physiologique</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La déglutition physiologique concerne plus de 75 % de la population adulte :
 stabilisation des deux mâchoires par occlusion des arcades dentaires antagonistes (déglutition "en dents serrées") ;
 élévation de la langue et pression linguale contre les procès alvéolaires, facteur de croissance du massif facial chez l'adolescent ;
 la langue postérieure s'appuie sur le palais osseux et contre la paroi postérieure du pharynx ;
 élévation de l'os hyoïde et du voile du palais ;
-pendant moins d'une demi-seconde par minute, la mandibule est stabilisée par l'occlusion des dents inférieures sur les supérieures et grâce à des contractions réflexes : isométrique des muscles masticateurs et isotonique des muscles sus- et sous-hyoïdiens)  (voir : Science de l'occlusion dentaire).[réf. nécessaire]
-déglutition atypique
-La déglutition atypique concerne moins de 25 % de la population adulte :
+pendant moins d'une demi-seconde par minute, la mandibule est stabilisée par l'occlusion des dents inférieures sur les supérieures et grâce à des contractions réflexes : isométrique des muscles masticateurs et isotonique des muscles sus- et sous-hyoïdiens)  (voir : Science de l'occlusion dentaire).[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Déglutition</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le temps buccal</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La déglutition salivaire ou « à vide »</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>déglutition atypique</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La déglutition atypique concerne moins de 25 % de la population adulte :
 la langue ne s'appuie pas sur le palais osseux : le corps lingual exerce une pulsion entre les arcades dentaires, supérieure et inférieure : c'est l'interposition linguale ;
 de par cette interposition linguale inter arcades, la mandibule est relativement stabilisée pour exécuter, tant bien que mal, l'acte de déglutition salivaire : la contraction des muscles masticateurs est très limitée ;
 contraction très énergique en revanche des muscles péri-oraux, ou muscles faciaux (nerf VII, mimiques faciales) ;
 syn. déglutition infantile (elle est normale chez le nourrisson et chez l'enfant) ; déglutition dysfonctionnelle pathologique de l'adulte et souvent en relation avec une dysfonction posturale de la mâchoire inférieure et une malocclusion dentaire (infraclusion organique ou dents verticalement trop petites, encombrement dentaire ou chevauchements, migrations dentaires ou bascule des dents, etc.).
-Le réflexe de déglutition atypique ne peut pas être complètement "(ré)éduqué" par logopédie (Belgique) ou orthophonie (France), et via quelques exercices quotidiens de myothérapie fonctionnelle (MTF). Une déglutition atypique peut causer un problème esthétique par migrations dentaires : la langue, en s'appuyant sur les dents lors de la déglutition ou de la phonation, peut déplacer les organes dentaires dans l'os alvéolaire. Ceci produit les fâcheuses récidives orthodontiques après traitement ODF).
-Aliments liquides
-Deux phases l'aspiration  par contraction du muscle orbiculaire des lèvres 
+Le réflexe de déglutition atypique ne peut pas être complètement "(ré)éduqué" par logopédie (Belgique) ou orthophonie (France), et via quelques exercices quotidiens de myothérapie fonctionnelle (MTF). Une déglutition atypique peut causer un problème esthétique par migrations dentaires : la langue, en s'appuyant sur les dents lors de la déglutition ou de la phonation, peut déplacer les organes dentaires dans l'os alvéolaire. Ceci produit les fâcheuses récidives orthodontiques après traitement ODF).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Déglutition</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le temps buccal</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aliments liquides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux phases l'aspiration  par contraction du muscle orbiculaire des lèvres 
 langue intercalée entre les 2 arcades
 inocclusion dentaire
 propulsion du liquide par tension du plancher buccal : contraction des muscles mylo-hyoïdien et génio-hyoïdien. 
-Aliment solides, visqueux ou plastiques
-(1) pointe de la langue vers le haut
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Déglutition</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le temps buccal</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aliment solides, visqueux ou plastiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(1) pointe de la langue vers le haut
 séparation du bloc alimentaire en 2 parties contre le palais osseux
 chargement de la partie à déglutir contre le dos lingual
 (2) fermeture de la bouche
@@ -579,34 +741,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>D%C3%A9glutition</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Déglutition</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Temps pharyngien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Action de transit
-(1) réappui de la langue contre les piliers post du pharynx
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Action de transit</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(1) réappui de la langue contre les piliers post du pharynx
 (2) contraction des muscles stylo-pharyngiens
 Pendant le passage du bol alimentaire entre les piliers postérieurs du pharynx
 rapprochement des piliers postérieurs
@@ -632,24 +799,214 @@
 (11) contraction rythmique du muscle crico-pharyngien
 après passage du bol alimentaire
 (12) ouverture des orifices des trompes d'Eustache
-par contraction des muscles péristaphylins externes
-Occlusions orificielles réflexes
-Ici, il faut catégoriquement distinguer les fonctions réflexes (automatiques) des fonctions volontaires (corticalisées, volonté de l'individu)
-Occlusion des dents antagonistes
-Permet de stabiliser la mâchoire inférieure sur la mâchoire supérieure : déglutition physiologique ou fonctionnelle, dite "en dents serrées". La pointe de la langue vient au contact de la face palatine des incisives supérieures.
+par contraction des muscles péristaphylins externes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Déglutition</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Temps pharyngien</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Occlusions orificielles réflexes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ici, il faut catégoriquement distinguer les fonctions réflexes (automatiques) des fonctions volontaires (corticalisées, volonté de l'individu)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Déglutition</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Temps pharyngien</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Occlusions orificielles réflexes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Occlusion des dents antagonistes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Permet de stabiliser la mâchoire inférieure sur la mâchoire supérieure : déglutition physiologique ou fonctionnelle, dite "en dents serrées". La pointe de la langue vient au contact de la face palatine des incisives supérieures.
 Le contact, entre les dents antagonistes, stimule les propriocepteurs desmodontaux (mécanorécepteurs) afin de protéger les organes : c'est le réflexe de C.S. Sherrington (1917, Prix Nobel 1932).
 Cette occlusion réflexe des dents inférieures sur les dents supérieures n'existe pas lors d'une déglutition infantile (enfants et adolescents), d'une déglutition atypique ou déglutition dysfonctionnelle (adultes) : à cause de la pulsion linguale interarcades
-Occlusion de l'isthme du gosier
-Empêche la remontée du bol alimentaire dans la cavité buccale
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Déglutition</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Temps pharyngien</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Occlusions orificielles réflexes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Occlusion de l'isthme du gosier</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Empêche la remontée du bol alimentaire dans la cavité buccale
 appui de la base et du dos de la langue contre le palais
 rapprochement des piliers antérieurs du voile
-Occlusion des fosses nasales
-Appui de la langue sur la paroi post du pharynx
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Déglutition</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Temps pharyngien</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Occlusions orificielles réflexes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Occlusion des fosses nasales</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appui de la langue sur la paroi post du pharynx
 appui du bord libre du voile contre la membrane pharyngienne
 rapprochement des piliers post du pharynx, du voile et de la luette
 évite le franchissement des choanes par le bol
-Occlusion du larynx
-Interdit l'accès du bol à la trachée artère
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Déglutition</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Temps pharyngien</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Occlusions orificielles réflexes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Occlusion du larynx</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interdit l'accès du bol à la trachée artère
 refoulement de l'épiglotte par la racine de la langue
 dilatation de la base de la langue au-dessus de la glotte
 ascension du squelette laryngé
@@ -659,31 +1016,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D%C3%A9glutition</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Déglutition</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9glutition</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Temps œsophagien</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Il assure le transfert des aliments du sphincter supérieur d'œsophage jusqu'au cardia grâce à une onde péristaltique qui parcourt l'œsophage de haut en bas (péristaltisme primaire). La musculature œsophagienne est répartie en deux couches, longitudinales externes et circulaires internes. Elle est constituée, dans les premiers centimètres de l'œsophage, par des fibres striées qui peu à peu sont remplacées complètement par des fibres lisses au niveau de la moitié inférieure de l'œsophage.
 L'onde péristaltique fait intervenir les deux couches musculaires. La contraction des fibres longitudinales attire la portion distale d'un segment œsophagien à la rencontre du bol alimentaire. Les fibres circulaires se relâchent en aval du bol et se contractent en amont. Le péristaltisme œsophagien est plus lent que le péristaltisme pharyngé: la vitesse de l'onde œsophagienne est de 3 cm/s dans l'œsophage proximal et jusqu'à 5 cm/s dans le tiers inférieur. Le péristaltisme œsophagien peut être déclenché indépendamment du péristaltisme pharyngé : la distension des parois œsophagiennes provoque un péristaltisme dit secondaire, en dehors de la déglutition. 
